--- a/parsed_data_converted_sorted_20251021_200717/notes_data.xlsx
+++ b/parsed_data_converted_sorted_20251021_200717/notes_data.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4816</t>
+          <t>4815</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>13210</t>
+          <t>18576</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>['http://sns-webpic-qc.xhscdn.com/202510212007/d548bea628641b7d753b6ba3f1787a2c/notes_pre_post/1040g3k031n0h00k552004a3qa7id5705mam45pg!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510212007/43ebab085918e26678ddf4fc1566b7a7/notes_pre_post/1040g3k031n0h00k5520g4a3qa7id5705hsmb8v8!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510212007/7ab115d2c9da6a8c462bf04ce0da0efe/notes_pre_post/1040g3k031n0h00k552104a3qa7id5705mrkkbsg!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510212007/2cbfe44b4015387abf7025aa99f248ac/notes_pre_post/1040g3k031n0h00k5521g4a3qa7id570572pg2b0!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510212007/015608327d0374cc335879d1dd2b9922/notes_pre_post/1040g3k031n0h00k552204a3qa7id5705rfdi468!nd_dft_wlteh_webp_3']</t>
+          <t>['http://sns-webpic-qc.xhscdn.com/202510221623/9888557b4a5fd6ec95513c920ed97ac7/notes_pre_post/1040g3k031n0h00k552004a3qa7id5705mam45pg!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510221623/964ac15867fa514528a8de6ad2579efd/notes_pre_post/1040g3k031n0h00k5520g4a3qa7id5705hsmb8v8!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510221623/906a37723abc6729c5252091536bdfe2/notes_pre_post/1040g3k031n0h00k552104a3qa7id5705mrkkbsg!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510221623/e7728e74b8e463435ef8530055c65708/notes_pre_post/1040g3k031n0h00k5521g4a3qa7id570572pg2b0!nd_dft_wlteh_webp_3', 'http://sns-webpic-qc.xhscdn.com/202510221623/f0a07f096485d2b0b646fa4822806b89/notes_pre_post/1040g3k031n0h00k552204a3qa7id5705rfdi468!nd_dft_wlteh_webp_3']</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2025-10-21 20:07:17</t>
+          <t>2025-10-22 16:23:11</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
